--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">2000000000-4000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface</t>
   </si>
 </sst>
 </file>
@@ -251,8 +254,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,334 +283,334 @@
   <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
+      <selection pane="topLeft" activeCell="AO3" activeCellId="0" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="32.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="30.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="0" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="32.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="1" width="29.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>8000000000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>8000000000</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>8000000000</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>8000000000</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>8000000000</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>8000000000</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>8000000000</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>4000000000</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="0" t="n">
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>9999</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="1" t="n">
         <v>150000</v>
       </c>
-      <c r="V2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="0" t="n">
+      <c r="V2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="n">
         <v>1000000000000</v>
       </c>
-      <c r="X2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="0" t="s">
+      <c r="X2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2" s="1" t="n">
         <v>250000000</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2" s="1" t="n">
         <v>125000000</v>
       </c>
-      <c r="AC2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AC2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="AU2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AU2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -282,8 +282,8 @@
   </sheetPr>
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO3" activeCellId="0" sqref="AO3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Monsters" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Monsters" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t xml:space="preserve">The Ice Plane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fliniguss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000000000-30000000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000000000-16000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delusional Memories</t>
   </si>
 </sst>
 </file>
@@ -287,6 +299,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -294,8 +412,8 @@
   </sheetPr>
   <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AV3" activeCellId="0" sqref="AV3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ5" activeCellId="0" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -608,13 +726,13 @@
         <v>52</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AU2" s="1" t="n">
         <v>1</v>
@@ -745,13 +863,13 @@
         <v>56</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="AU3" s="1" t="n">
         <v>1</v>
@@ -763,7 +881,143 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>32000000001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>32000000002</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>32000000003</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>32000000004</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>32000000005</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>32000000006</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>1000000000000</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">The Ice Plane</t>
   </si>
   <si>
-    <t xml:space="preserve">Fliniguss</t>
+    <t xml:space="preserve">Jester of Time</t>
   </si>
   <si>
     <t xml:space="preserve">10000000000000-30000000000000</t>
@@ -413,7 +413,7 @@
   <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ5" activeCellId="0" sqref="AQ5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Delusional Memories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen Dead King</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -744,7 +747,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>367</v>
       </c>
@@ -881,7 +884,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>367</v>
       </c>
@@ -1016,6 +1019,143 @@
       </c>
       <c r="AW4" s="1" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>300000</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>1000000000000</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS5" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW4">
         <v>0.45</v>

--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t xml:space="preserve">Corrupted Bishop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enraged and Corrupted Minotaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labyrinth</t>
   </si>
 </sst>
 </file>
@@ -482,13 +488,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO8" activeCellId="0" sqref="AO8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.14"/>
@@ -1369,6 +1375,140 @@
         <v>0.45</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>4000000000</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>20000000000000</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>50000000000</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/resources/data-imports/Monsters/raid-bosses.xlsx
+++ b/resources/data-imports/Monsters/raid-bosses.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">Corrupted Bishop</t>
   </si>
   <si>
-    <t xml:space="preserve">Enraged and Corrupted Minotaur</t>
+    <t xml:space="preserve">Enraged and Corrupted Little Girl</t>
   </si>
   <si>
     <t xml:space="preserve">Labyrinth</t>
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO8" activeCellId="0" sqref="AO8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV7" activeCellId="0" sqref="AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1473,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AN7" s="1" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0.6</v>
       </c>
       <c r="AR7" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS7" s="1" t="n">
         <v>0.3</v>
@@ -1503,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="AV7" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="1" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
